--- a/ホスト間コンテナ接続設定_wang.xlsx
+++ b/ホスト間コンテナ接続設定_wang.xlsx
@@ -397,62 +397,6 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="テキスト ボックス 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB925CD-B83D-48D5-AA4C-BA6916E1EDF0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1543049" y="647701"/>
-            <a:ext cx="1485901" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>subnet 10.168.0.0/16</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
           <xdr:cNvPr id="23" name="グループ化 22">
@@ -518,58 +462,6 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="正方形/長方形 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78F9C6B-F7B8-40D2-BF87-37AF4ED089B2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2933700" y="2009775"/>
-              <a:ext cx="1247775" cy="304800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                <a:t>br0 10.168.0.0/16</a:t>
-              </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -682,62 +574,6 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="正方形/長方形 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64592D7C-0A02-4FD2-84A7-BB1047F70802}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2838451" y="2562225"/>
-              <a:ext cx="1238250" cy="304800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                <a:t>eth0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-                <a:t> 10.168.1.100</a:t>
-              </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -878,6 +714,134 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="正方形/長方形 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64592D7C-0A02-4FD2-84A7-BB1047F70802}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2838451" y="2562225"/>
+              <a:ext cx="1238250" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>eth0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> 10.168.1.100</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="正方形/長方形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78F9C6B-F7B8-40D2-BF87-37AF4ED089B2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2933700" y="2009775"/>
+              <a:ext cx="1247775" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>br0 10.168.0.0/16</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -925,58 +889,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D473121-F0E0-4C02-9EC1-828E86BBED93}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5457825" y="2009775"/>
-            <a:ext cx="1247775" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>br0 10.168.0.0/16</a:t>
-            </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
@@ -1089,62 +1001,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69426C86-262E-419C-BB58-816C3ED568AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5362576" y="2562225"/>
-            <a:ext cx="1238250" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>eth0</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-              <a:t> 10.168.1.101</a:t>
-            </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
@@ -1292,10 +1148,18 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>gateway 10.168.0.254</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1379,6 +1243,190 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69426C86-262E-419C-BB58-816C3ED568AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5362576" y="2562225"/>
+            <a:ext cx="1238250" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>eth0</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 10.168.1.101</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D473121-F0E0-4C02-9EC1-828E86BBED93}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5457825" y="2009775"/>
+            <a:ext cx="1247775" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>br0 10.168.0.0/16</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB925CD-B83D-48D5-AA4C-BA6916E1EDF0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1543049" y="647701"/>
+            <a:ext cx="1485901" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>subnet 10.168.0.0/16</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>

--- a/ホスト間コンテナ接続設定_wang.xlsx
+++ b/ホスト間コンテナ接続設定_wang.xlsx
@@ -163,9 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>docker run -it --net=mynet --ip=10.168.1.100 --hostname master --name master -v /storage/docker/share:/share centos:6.8 /bin/bash</t>
-  </si>
-  <si>
     <t xml:space="preserve">    address 10.168.1.201</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>docker run -it --net=mynet --ip=10.168.1.101 --hostname node1 --name node1 -v /storage/docker/share:/share centos:6.8 /bin/bash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[root@node1 /]# yum install iputils -y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,10 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[root@node1 /]#  ping 10.168.1.101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>docker host2設定は以下となります。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,6 +212,66 @@
   </si>
   <si>
     <t>ネットワーク構成図</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker run -it --net=mynet --ip=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.168.1.100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --hostname master --name master -v /storage/docker/share:/share centos:6.8 /bin/bash</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker run -it --net=mynet --ip=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.168.1.101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --hostname node1 --name node1 -v /storage/docker/share:/share centos:6.8 /bin/bash</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[root@node1 /]#  ping 10.168.1.100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +309,14 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -759,7 +816,7 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -767,14 +824,14 @@
                 <a:t>eth0</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t> 10.168.1.100</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -827,14 +884,14 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>br0 10.168.0.0/16</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1288,7 +1345,7 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1296,14 +1353,14 @@
               <a:t>eth0</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> 10.168.1.101</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1356,14 +1413,14 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>br0 10.168.0.0/16</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1420,10 +1477,10 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
               <a:t>subnet 10.168.0.0/16</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1924,7 +1981,7 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +2004,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2002,7 +2059,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2129,7 +2186,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
@@ -2167,7 +2224,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2175,12 +2232,12 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2188,12 +2245,12 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2269,7 @@
   <dimension ref="A2:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2222,7 +2279,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2277,8 +2334,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>40</v>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2354,7 +2411,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2404,8 +2461,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>42</v>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -2442,7 +2499,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2450,12 +2507,12 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2463,12 +2520,12 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
